--- a/tests/fixtures/orderforms/1508.33.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC69EA-3760-7C41-915E-CC87FAF1F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6B8A2D-CDF9-5E4B-B317-088D30AC8A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5579,7 +5579,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5589,57 +5589,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5916,8 +5916,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6B8A2D-CDF9-5E4B-B317-088D30AC8A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE34314-DE26-2A47-AB58-7D3288E6D996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="849">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3679,6 +3679,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4451,7 +4454,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4888,6 +4891,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5578,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5916,8 +5922,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12227,60 +12233,60 @@
       <c r="AL8" s="30"/>
     </row>
     <row r="9" spans="1:1028" s="35" customFormat="1" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="168"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="169" t="s">
+      <c r="P9" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="169"/>
+      <c r="Q9" s="170"/>
       <c r="R9" s="34"/>
       <c r="S9" s="108" t="s">
         <v>713</v>
       </c>
       <c r="T9"/>
-      <c r="U9" s="170" t="s">
+      <c r="U9" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="173"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="33" t="s">
         <v>14</v>
       </c>
       <c r="AA9" s="34"/>
-      <c r="AB9" s="168" t="s">
+      <c r="AB9" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="168"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="169"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="129" t="s">
         <v>605</v>
       </c>
       <c r="AG9" s="32"/>
-      <c r="AH9" s="173" t="s">
+      <c r="AH9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="174"/>
-      <c r="AK9" s="174"/>
-      <c r="AL9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="176"/>
     </row>
     <row r="10" spans="1:1028" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
@@ -12303,9 +12309,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13366,8 +13370,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="165" t="s">
+        <v>848</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13438,9 +13442,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72457,7 +72459,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XT5UUulUl1BaFqfLw1zzHCloaJ2ImzI/TMV8uUCq+2jy68IsxU7AAv/KZ/JyoPt1z+JU9FVssf3hpi2Lf5It6A==" saltValue="iFW/d/hKeFjrB5+TOJ6qdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -72629,8 +72631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM313"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.33.mip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5048F935-81A4-8C44-A6FD-12153FD65B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40763B18-9254-B64C-8FB8-3019327EF555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="-13480" windowWidth="36880" windowHeight="26320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="850">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -5920,8 +5920,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13622,7 +13622,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13656,7 +13656,9 @@
         <v>75</v>
       </c>
       <c r="R15" s="74"/>
-      <c r="S15" s="73"/>
+      <c r="S15" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U15" s="88" t="s">
         <v>472</v>
       </c>
@@ -15774,7 +15776,7 @@
         <v>724</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>68</v>
@@ -15804,7 +15806,9 @@
       <c r="P17" s="70"/>
       <c r="Q17" s="85"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="73"/>
+      <c r="S17" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U17" s="88" t="s">
         <v>472</v>
       </c>
@@ -16835,7 +16839,7 @@
         <v>731</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>90</v>
@@ -16865,7 +16869,9 @@
       <c r="P18" s="70"/>
       <c r="Q18" s="85"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="73"/>
+      <c r="S18" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U18" s="88" t="s">
         <v>95</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>734</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>90</v>
@@ -17926,7 +17932,9 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="73"/>
+      <c r="S19" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U19" s="88" t="s">
         <v>100</v>
       </c>
@@ -18957,7 +18965,7 @@
         <v>737</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>90</v>
@@ -18987,7 +18995,9 @@
       <c r="P20" s="70"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="73"/>
+      <c r="S20" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U20" s="88" t="s">
         <v>105</v>
       </c>
@@ -20018,7 +20028,7 @@
         <v>740</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>90</v>
@@ -20048,7 +20058,9 @@
       <c r="P21" s="70"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="73"/>
+      <c r="S21" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U21" s="88" t="s">
         <v>109</v>
       </c>
@@ -21079,7 +21091,7 @@
         <v>743</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>90</v>
@@ -21109,7 +21121,9 @@
       <c r="P22" s="70"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="73"/>
+      <c r="S22" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U22" s="88" t="s">
         <v>113</v>
       </c>
@@ -22140,7 +22154,7 @@
         <v>746</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>90</v>
@@ -22170,7 +22184,9 @@
       <c r="P23" s="70"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="73"/>
+      <c r="S23" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U23" s="88" t="s">
         <v>117</v>
       </c>
@@ -23201,7 +23217,7 @@
         <v>749</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>90</v>
@@ -23231,7 +23247,9 @@
       <c r="P24" s="70"/>
       <c r="Q24" s="85"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="73"/>
+      <c r="S24" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U24" s="88" t="s">
         <v>473</v>
       </c>
@@ -24262,7 +24280,7 @@
         <v>752</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>90</v>
@@ -24292,7 +24310,9 @@
       <c r="P25" s="70"/>
       <c r="Q25" s="85"/>
       <c r="R25" s="74"/>
-      <c r="S25" s="73"/>
+      <c r="S25" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U25" s="88" t="s">
         <v>473</v>
       </c>
@@ -25323,7 +25343,7 @@
         <v>755</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>90</v>
@@ -25353,7 +25373,9 @@
       <c r="P26" s="70"/>
       <c r="Q26" s="85"/>
       <c r="R26" s="74"/>
-      <c r="S26" s="73"/>
+      <c r="S26" s="73" t="s">
+        <v>74</v>
+      </c>
       <c r="U26" s="88" t="s">
         <v>122</v>
       </c>
